--- a/AutomationCourse/src/test/resources/TestData.xlsx
+++ b/AutomationCourse/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\AutomationCourse\AutomationCourse\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AE7029-E3C1-4E27-A605-FE3E33F56734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F0890A-4B97-4175-8E2B-A13C8C5295A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Password</t>
   </si>
@@ -36,16 +36,13 @@
     <t>standard_user</t>
   </si>
   <si>
-    <t>locked_out_user</t>
-  </si>
-  <si>
-    <t>problem_user</t>
-  </si>
-  <si>
-    <t>performance_glitch_user</t>
-  </si>
-  <si>
     <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>123_user</t>
   </si>
 </sst>
 </file>
@@ -377,7 +374,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -398,22 +395,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
